--- a/data/trans_bre/P70D_R_2023-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P70D_R_2023-Estudios-trans_bre.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>8.098486743756714</v>
+        <v>8.098486743756713</v>
       </c>
       <c r="D4" s="6" t="n">
         <v>1.020296935646088</v>
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2013317131372617</v>
+        <v>0.3490002447016877</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.02190410973214545</v>
+        <v>0.01022864845250297</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.58849012648136</v>
+        <v>17.48815538567431</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2.977316400644273</v>
+        <v>3.29157233550453</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>1.626089338811763</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.4146975536088847</v>
+        <v>0.4146975536088846</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.0004476732127240955</v>
+        <v>-0.01883930987230302</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.00437962447101173</v>
+        <v>-0.01956369572778881</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.364385500222736</v>
+        <v>3.423497483912405</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.075165773740415</v>
+        <v>1.068494870729292</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.7104461455979858</v>
+        <v>0.710446145597985</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.183110936513263</v>
+        <v>0.1831109365132628</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.363746416669918</v>
+        <v>-2.080126801660156</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.3973704909210931</v>
+        <v>-0.3908046073923744</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.119565658987145</v>
+        <v>3.2027160897033</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.288028145461613</v>
+        <v>1.315158971364544</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>1.577072840144553</v>
+        <v>1.577072840144552</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.3713078892878819</v>
+        <v>0.3713078892878817</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1386592472183248</v>
+        <v>0.1384851615149174</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.01815984382860028</v>
+        <v>0.02112225923875165</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.260887229855137</v>
+        <v>3.01722449537813</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9275418195679324</v>
+        <v>0.8475463508797048</v>
       </c>
     </row>
     <row r="16">
